--- a/Data_Science_projects.xlsx
+++ b/Data_Science_projects.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Personal webpage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{453F9CBE-7B56-49A1-8C70-ABA2F095D650}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{573ED138-96A2-47C5-A2F2-48599171343D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" firstSheet="1" activeTab="1" xr2:uid="{4E49D01C-9E91-46E4-97F0-D2887F402D8C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" firstSheet="1" activeTab="3" xr2:uid="{4E49D01C-9E91-46E4-97F0-D2887F402D8C}"/>
   </bookViews>
   <sheets>
     <sheet name="Healthcare and Biomedical Analy" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="61">
   <si>
     <t>Project title</t>
   </si>
@@ -326,6 +326,19 @@
 Method: Applied four detrending filters (Gaussian, LOESS, Butterworth, linear) with 25–75% rolling windows to compute variance &amp; lag 1 autocorrelation (AC1), testing significance via 1 000 phase randomized surrogates and KS/Levene bootstrapped distribution shifts.
 Key Results: AC1 trends were robust and statistically significant (p &lt; 0.05) for Younger Dryas &amp; HTM but inconsistent for the 8.2 k event; variance signals showed context dependent inversions.
 Impact: Mapped robustness across 24 detrend × window combinations, underscoring the need for multi metric, surrogate validated EWS frameworks to reliably predict climate tipping points</t>
+  </si>
+  <si>
+    <t>Reinforcement Learning for EV Eco-Driving and Energy Management</t>
+  </si>
+  <si>
+    <t>Task: Optimize the driving policy of an electric vehicle to accurately follow a target speed profile while minimizing energy consumption. The agent must learn to balance speed tracking with efficiency by making intelligent decisions to accelerate, brake, or coast.
+Dataset: A custom gymnasium environment using two distinct drive cycles: 1) The standardized Worldwide Harmonised Light Vehicle Test Procedure (WLTP) for training, and 2) Unseen, real-world driving data for validation.
+Method: Trained a Deep Q-Network (DQN) agent using a custom-engineered reward function. This Reward Shaping technique penalized jerky manoeuvres and incentivized energy-saving coasting to promote a smooth driving style.
+Key Results: The agent successfully learned an efficient, coast-centric policy. The primary achievement was zero-shot generalization: the agent, trained only on the WLTP cycle, applied its efficient driving strategy effectively to the unseen real-world data without any retraining.
+Impact: Demonstrates RL's capability to create robust control policies that can enhance EV range and driving efficiency. This project shows how simulated training can produce intelligent agents ready for complex, real-world automotive challenges.</t>
+  </si>
+  <si>
+    <t>https://github.com/Gururaj008/RL_for_EV_Energy_Efficient_Control/</t>
   </si>
 </sst>
 </file>
@@ -949,7 +962,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23EC5670-DDCB-4D08-9CD4-3D6AB78873B5}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -1098,10 +1111,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96000888-00A7-4548-BDAD-5C9CA438EA61}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1133,9 +1146,21 @@
         <v>30</v>
       </c>
     </row>
+    <row r="3" spans="1:3" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{2ED9FCA2-1155-46E8-9E6F-216DF27C27A2}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{D2CAD46D-C4AB-4E66-8CD9-B13813AC2D30}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data_Science_projects.xlsx
+++ b/Data_Science_projects.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Personal webpage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{573ED138-96A2-47C5-A2F2-48599171343D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EA229D5-BDA0-45D6-9D82-1586A0A6D87D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" firstSheet="1" activeTab="3" xr2:uid="{4E49D01C-9E91-46E4-97F0-D2887F402D8C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" firstSheet="1" activeTab="4" xr2:uid="{4E49D01C-9E91-46E4-97F0-D2887F402D8C}"/>
   </bookViews>
   <sheets>
     <sheet name="Healthcare and Biomedical Analy" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="64">
   <si>
     <t>Project title</t>
   </si>
@@ -339,6 +339,19 @@
   </si>
   <si>
     <t>https://github.com/Gururaj008/RL_for_EV_Energy_Efficient_Control/</t>
+  </si>
+  <si>
+    <t>Prompt Injection Vulnerabilities in a Multimodal RAG System</t>
+  </si>
+  <si>
+    <t>Task: To audit a multimodal Retrieval-Augmented Generation (RAG) system for prompt injection vulnerabilities. The primary objective was to test if the AI could be manipulated into disobeying its security instructions and revealing confidential data from a knowledge base.
+Dataset: A custom-built, multimodal knowledge base consisting of product entries with both public (description) and confidential (secret) data fields. This was paired with corresponding images (car_red.jpg, car_blue.jpg) to simulate a realistic enterprise database.
+Method: Executed a multi-stage security audit using increasingly sophisticated prompt injection techniques. The core method was A/B testing of prompting strategies: 1) a secure baseline using the system_instruction parameter, and 2) an insecure, concatenated prompt. The final, successful attack used a "Trojan Horse" prompt to create a new persona for the model and explicitly deprecate its original security rules.
+Key Results: The primary achievement was a clear demonstration of a critical vulnerability. While the securely implemented agent (using system_instruction) resisted all attacks, the "Trojan Horse" attack was 100% successful. It tricked the model into disobeying its "deprecated" security rules and leaking the confidential cost price by performing a calculation on it. This proved the system's security was entirely dependent on the implementation pattern.
+Impact: This project serves as a crucial case study in AI security. It proves that even powerful, well-aligned models can be compromised if developers do not adhere to secure implementation patterns (like separating system instructions from user data). The findings provide a clear, practical demonstration of how to prevent prompt injection vulnerabilities in real-world RAG applications</t>
+  </si>
+  <si>
+    <t>https://github.com/Gururaj008/RAG_Prompt_Injection_PoC/</t>
   </si>
 </sst>
 </file>
@@ -1113,7 +1126,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96000888-00A7-4548-BDAD-5C9CA438EA61}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+    <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
@@ -1168,10 +1181,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07660D5F-F12A-4518-9F06-8F2625AAA054}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1214,12 +1227,25 @@
         <v>34</v>
       </c>
     </row>
+    <row r="4" spans="1:3" ht="259.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{139A0408-8B03-415E-93B9-320165C2A07E}"/>
     <hyperlink ref="C3" r:id="rId2" xr:uid="{7A39EFE2-9D2E-4C62-8267-7B7A1326514B}"/>
+    <hyperlink ref="C4" r:id="rId3" display="https://www.google.com/url?sa=E&amp;q=https%3A%2F%2Fgithub.com%2FGururaj008%2FRAG_Prompt_Injection_PoC%2F" xr:uid="{2710B62D-C3C7-4242-8A1D-F67758A61977}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 

--- a/Data_Science_projects.xlsx
+++ b/Data_Science_projects.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Personal webpage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EA229D5-BDA0-45D6-9D82-1586A0A6D87D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E878B0F0-4BEB-4067-8C09-996B0ADD7469}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" firstSheet="1" activeTab="4" xr2:uid="{4E49D01C-9E91-46E4-97F0-D2887F402D8C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" firstSheet="1" activeTab="3" xr2:uid="{4E49D01C-9E91-46E4-97F0-D2887F402D8C}"/>
   </bookViews>
   <sheets>
     <sheet name="Healthcare and Biomedical Analy" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="67">
   <si>
     <t>Project title</t>
   </si>
@@ -352,6 +352,19 @@
   </si>
   <si>
     <t>https://github.com/Gururaj008/RAG_Prompt_Injection_PoC/</t>
+  </si>
+  <si>
+    <t>Adaptive Sampling for Efficient Digital Twin Simulation</t>
+  </si>
+  <si>
+    <t>Task: To develop an intelligent agent that reduces the computational cost of a network digital twin by minimizing calls to a "costly" physics simulation. The objective was to dynamically balance simulation accuracy with computational efficiency.
+Dataset: A custom-built simulation environment featuring a mobile device performing a random walk around a central Wi-Fi access point. The "ground truth" data (Received Signal Strength) was generated in real-time using a log-distance path loss model, eliminating the need for a static dataset.
+Method: Implemented an Epsilon-Greedy Multi-Armed Bandit (MAB) as an intelligent controller. The agent learned to choose between two actions: (1) invoking the costly, high-fidelity RSSI simulation to get perfect data, or (2) using the last known value to save computational resources. The agent's reward function was designed to penalize both simulation cost and state estimation error.
+Key Results: The agent successfully learned an optimal policy, achieving a 67% reduction in costly simulation calls over 500 timesteps. This efficiency was gained while maintaining high fidelity, with a low Mean Squared Error of just 1.1128 between the agent's estimate and the ground truth.
+Impact: This project serves as a successful Proof-of-Concept for the core research problem. It provides a practical demonstration that a data-driven controller can effectively manage the trade-off between cost and accuracy in a dynamic system, validating the feasibility of the approach for building scalable and efficient digital twins.</t>
+  </si>
+  <si>
+    <t>https://github.com/Gururaj008/PoC_Reducing_Computational_Cost_of_Network_Digital_Twins</t>
   </si>
 </sst>
 </file>
@@ -1124,10 +1137,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96000888-00A7-4548-BDAD-5C9CA438EA61}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1170,10 +1183,22 @@
         <v>60</v>
       </c>
     </row>
+    <row r="4" spans="1:3" ht="216" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{2ED9FCA2-1155-46E8-9E6F-216DF27C27A2}"/>
     <hyperlink ref="C3" r:id="rId2" xr:uid="{D2CAD46D-C4AB-4E66-8CD9-B13813AC2D30}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{1E850202-5512-4F3B-922C-8875FE45932A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1183,8 +1208,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07660D5F-F12A-4518-9F06-8F2625AAA054}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView topLeftCell="A4" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
